--- a/____Teorias_Monetarias___/Trabajos/hdt/david_corzo-1,2,3,4.xlsx
+++ b/____Teorias_Monetarias___/Trabajos/hdt/david_corzo-1,2,3,4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_5_Semestre-[Mayo-Julio-2020]\____SumaDeCursosUFM2.2____\____Teorias_Monetarias___\Trabajos\hdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC02EE9-D7C0-418B-A40A-CF06B6ACAFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BEBFA-3004-4CFA-A505-89768F72EF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inciso1&amp;2" sheetId="2" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">Numerario nacional </t>
   </si>
   <si>
-    <t>Intereses de valores del interior</t>
-  </si>
-  <si>
     <t>SISTEMA BANCARIO</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>(disponibilidades+inversiones)/(obligaciones depositarias+oblicaciones por pagar)</t>
+  </si>
+  <si>
+    <t>Inversiones de valores del interior</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64387686-D1D3-4136-B46E-9E42FFD4A7A3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,17 +1094,17 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,18 +1113,18 @@
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>266121640</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>35619812</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>7193155</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>26801169</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>308599</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>505703</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>811187</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>95812610</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>52179643</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>39292077</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>3976185</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>576529</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>10943</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
         <v>96035378</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>222768</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>122602356</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5">
         <v>124364537</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>3353370</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5">
         <v>127717907</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5">
         <v>5115551</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5">
         <v>2177959</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="5">
         <v>1285772</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5">
         <v>890226</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5">
         <v>817150</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="5">
         <v>224825</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="5">
         <v>4248367</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="5">
         <v>2442563</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="5">
         <v>236217448</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="5">
         <v>226043211</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5">
         <v>74394624</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5">
         <v>53931349</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="5">
         <v>96782506</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="5">
         <v>249362</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="5">
         <v>685371</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="5">
         <v>84851</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="5">
         <v>76000</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="5">
         <v>8851</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="5">
         <v>259692</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="5">
         <v>875501</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="5">
         <v>5925699</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="5">
         <v>1424726</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="5">
         <v>471190</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" s="5">
         <v>235084870</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="5">
         <v>1132577</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="5">
         <v>34458253</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="5">
         <v>10608850</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="5">
         <v>21725000</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" s="5">
         <v>11201132</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="5">
         <v>84982</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="5">
         <v>2865171</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="5">
         <v>17098950</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="5">
         <v>423285</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="6">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="6">
         <v>0</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="5">
         <v>248520</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="5">
         <v>182652</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="5">
         <v>105369</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="5">
         <v>1642540</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="5">
         <v>2145261</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="6">
         <v>0</v>
@@ -2145,7 +2145,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <f>7916351646.86-11000000</f>
@@ -2203,12 +2203,12 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="8">
         <f>'Inciso1&amp;2'!D18</f>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="9">
         <f>11000000/B8</f>
@@ -2239,7 +2239,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,10 +2260,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2272,89 +2272,89 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="E6" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="34"/>
       <c r="L6" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="H7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13">
         <v>70314865</v>
@@ -2378,7 +2378,7 @@
         <v>76932063</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="13">
         <v>63445812</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>9499953</v>
@@ -2428,7 +2428,7 @@
         <v>0.13376570962356749</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
         <v>7767978</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>1965438</v>
@@ -2466,7 +2466,7 @@
         <v>1986275</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" ref="E10:E37" si="2">B10/$E$8</f>
+        <f t="shared" ref="E10:E36" si="2">B10/$E$8</f>
         <v>2.7951955820437115E-2</v>
       </c>
       <c r="F10" s="15">
@@ -2478,7 +2478,7 @@
         <v>2.5818558901767655E-2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="5">
         <v>1176168</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>7377779</v>
@@ -2528,7 +2528,7 @@
         <v>0.10152283320414793</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="5">
         <v>6395091</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5">
         <v>35686</v>
@@ -2578,7 +2578,7 @@
         <v>4.6386381189335844E-4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>4.3258296609048428E-3</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
         <v>121050</v>
@@ -2678,7 +2678,7 @@
         <v>1.6071582533799984E-3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
         <v>196719</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>2.7478789955236221E-5</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
         <v>28881303</v>
@@ -2779,7 +2779,7 @@
         <v>0.39326096064783805</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5">
         <v>26584514</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
         <v>20684636</v>
@@ -2879,7 +2879,7 @@
         <v>0.28021879512057279</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>7417149</v>
@@ -2929,7 +2929,7 @@
         <v>0.10270971155420595</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5">
         <v>26475992</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5">
         <v>313720</v>
@@ -2979,7 +2979,7 @@
         <v>4.2777872731685354E-3</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="5">
         <v>121504</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5">
         <v>558571</v>
@@ -3029,7 +3029,7 @@
         <v>7.2605748269092951E-3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="5">
         <v>17958</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5">
         <v>2323</v>
@@ -3079,7 +3079,7 @@
         <v>3.0195472595086913E-5</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="6">
         <v>149</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5">
         <v>28976399</v>
@@ -3129,7 +3129,7 @@
         <v>0.39449706424745168</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="5">
         <v>26615603</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5">
         <v>95096</v>
@@ -3179,7 +3179,7 @@
         <v>1.2361035996135967E-3</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="5">
         <v>31089</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
         <v>29222872</v>
@@ -3229,7 +3229,7 @@
         <v>0.43324560268194029</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="5">
         <v>25805635</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5">
         <v>29767010</v>
@@ -3279,7 +3279,7 @@
         <v>0.44247542146374003</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" s="5">
         <v>26437174</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5">
         <v>1330620</v>
@@ -3329,7 +3329,7 @@
         <v>2.1619763400859277E-2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="5">
         <v>420601</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>31097629</v>
@@ -3379,7 +3379,7 @@
         <v>0.46409517186611776</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="5">
         <v>26857775</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>1874758</v>
@@ -3429,7 +3429,7 @@
         <v>3.0849569184177472E-2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="5">
         <v>1052140</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>614094</v>
@@ -3479,7 +3479,7 @@
         <v>8.347715828184667E-3</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I30" s="5">
         <v>395306</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>93163</v>
@@ -3529,7 +3529,7 @@
         <v>1.2663770630978659E-3</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I31" s="5">
         <v>434730</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>347277</v>
@@ -3579,7 +3579,7 @@
         <v>4.7696108188337548E-3</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="5">
         <v>75502</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>246433</v>
@@ -3629,7 +3629,7 @@
         <v>6.9940799585733191E-3</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="5">
         <v>122002</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5">
         <v>99940</v>
@@ -3679,7 +3679,7 @@
         <v>1.3042026443512895E-3</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="5">
         <v>69292</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>490582</v>
@@ -3779,7 +3779,7 @@
         <v>6.3768210661398744E-3</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="5">
         <v>1485144</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>819249</v>
@@ -3833,7 +3833,7 @@
         <v>1.0668919667473365E-2</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="5">
         <v>705708</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="13">
         <v>64290521</v>
@@ -3887,7 +3887,7 @@
         <v>69302293</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I38" s="13">
         <v>55652268</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>61841265</v>
@@ -3961,7 +3961,7 @@
         <v>0.91451574336797192</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="5">
         <v>54664865</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>21961231</v>
@@ -4011,7 +4011,7 @@
         <v>0.3269723845933929</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" s="5">
         <v>21645227</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>18951739</v>
@@ -4061,7 +4061,7 @@
         <v>0.27701568258354742</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" s="5">
         <v>11820926</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>20693332</v>
@@ -4111,7 +4111,7 @@
         <v>0.30689656978593766</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43" s="5">
         <v>20899063</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>148063</v>
@@ -4161,7 +4161,7 @@
         <v>2.365592722884364E-3</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" s="5">
         <v>25077</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>86900</v>
@@ -4211,7 +4211,7 @@
         <v>1.2655136822096204E-3</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="5">
         <v>274574</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>4.8563559073002104E-2</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" s="6">
         <v>0</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" s="6">
         <v>0</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" s="6">
         <v>0</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>4.8563559073002104E-2</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50" s="6">
         <v>0</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51" s="6">
         <v>0</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I53" s="5">
         <v>65800</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="5">
         <v>231431</v>
@@ -4629,7 +4629,7 @@
         <v>4.0650170117747762E-3</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" s="5">
         <v>203161</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="5">
         <v>1047480</v>
@@ -4679,7 +4679,7 @@
         <v>1.5672612737359211E-2</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I55" s="5">
         <v>554186</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="5">
         <v>683132</v>
@@ -4729,7 +4729,7 @@
         <v>9.8572784597473571E-3</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I56" s="5">
         <v>69877</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I57" s="6">
         <v>0</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I58" s="6">
         <v>0</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="5">
         <v>66840</v>
@@ -4879,7 +4879,7 @@
         <v>9.894044919985549E-4</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I59" s="5">
         <v>62887</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="5">
         <v>63870148</v>
@@ -4929,7 +4929,7 @@
         <v>0.99366361514185397</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I60" s="5">
         <v>55620776</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="5">
         <v>420373</v>
@@ -4979,7 +4979,7 @@
         <v>6.3363848581460356E-3</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I61" s="5">
         <v>31492</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="13">
         <v>7629770</v>
@@ -5048,7 +5048,7 @@
         <v>7629770</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I63" s="13">
         <v>8216371</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="5">
         <v>1170334</v>
@@ -5108,7 +5108,7 @@
         <v>0.15339046917534865</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I65" s="5">
         <v>2404594</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="5">
         <v>5000000</v>
@@ -5148,7 +5148,7 @@
         <v>0.65532774906714097</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I66" s="5">
         <v>4000000</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="5">
         <v>3829666</v>
@@ -5188,7 +5188,7 @@
         <v>0.50193727989179227</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I67" s="5">
         <v>1595406</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I68" s="6">
         <v>0</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="5">
         <v>55740</v>
@@ -5268,7 +5268,7 @@
         <v>7.3055937466004871E-3</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I69" s="5">
         <v>1525755</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="5">
         <v>6138099</v>
@@ -5308,7 +5308,7 @@
         <v>0.8044933202442538</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I70" s="5">
         <v>3550385</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I71" s="6">
         <v>0</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="5">
         <v>23155</v>
@@ -5388,7 +5388,7 @@
         <v>3.03482280592993E-3</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I72" s="5">
         <v>56018</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="6">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I73" s="6">
         <v>0</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I74" s="6">
         <v>0</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I75" s="6">
         <v>0</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="5">
         <v>174275</v>
@@ -5548,7 +5548,7 @@
         <v>2.2841448693735198E-2</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I76" s="6">
         <v>0</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I77" s="6">
         <v>0</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="78" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="5">
         <v>49487</v>
@@ -5628,7 +5628,7 @@
         <v>6.4860408636171207E-3</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I78" s="6">
         <v>0</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="6">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I79" s="6">
         <v>0</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="5">
         <v>367230</v>
@@ -5708,7 +5708,7 @@
         <v>4.8131201857985237E-2</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I80" s="5">
         <v>679620</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -5746,7 +5746,7 @@
         <v>10.083143135376297</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5780,14 +5780,14 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="26">
         <f>D9/(D40+D53)</f>
         <v>0.16237283962624402</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I85" s="26">
         <f>K9/(K40+K53)</f>
@@ -5796,14 +5796,14 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="26">
         <f>D63/D8</f>
         <v>9.9175424426093964E-2</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I86" s="26">
         <f>K63/K8</f>
@@ -5812,14 +5812,14 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="26">
         <f>D63/D25</f>
         <v>0.22891270866262403</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I87" s="26">
         <f>K63/K25</f>
@@ -5828,14 +5828,14 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="26">
         <f>D63/(D40+D53)</f>
         <v>0.12038507724079436</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I88" s="26">
         <f>K63/(K40+K53)</f>
@@ -5844,14 +5844,14 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" s="26">
         <f>D80/D63</f>
         <v>4.8131201857985237E-2</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I89" s="26">
         <f>K80/K63</f>
@@ -5860,14 +5860,14 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="26">
         <f>D80/D8</f>
         <v>4.7734323724036879E-3</v>
       </c>
       <c r="H90" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I90" s="26">
         <f>K80/K8</f>
@@ -5876,14 +5876,14 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="26">
         <f>D26/D25</f>
         <v>1.0213038948916364</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I91" s="26">
         <f>K26/K25</f>
@@ -5892,14 +5892,14 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92">
         <f>(D9+D16)/(D40+D54)</f>
         <v>0.63690553433344299</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I92">
         <f>(K9+K16)/(K40+K54)</f>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H95" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
